--- a/models/training_summary_all_city.xlsx
+++ b/models/training_summary_all_city.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\skripsi_carin\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C93A3A1-E2B7-491D-8B35-0296BE39DAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7684ED-0A4A-4C92-A1EA-376E50EE517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="full_metrics" sheetId="2" r:id="rId5"/>
-    <sheet name="meta" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="full_metrics" sheetId="2" r:id="rId7"/>
+    <sheet name="meta" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$K$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$K$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$A$1:$K$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="387">
   <si>
     <t>Kota</t>
   </si>
@@ -7221,11 +7224,7055 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C836B-15E7-415E-AB71-24CCE257A33D}">
+  <dimension ref="A1:K100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>7.3556999999999997</v>
+      </c>
+      <c r="I2">
+        <v>7.6596000000000002</v>
+      </c>
+      <c r="J2">
+        <v>58.669699999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7.3556999999999997</v>
+      </c>
+      <c r="I3">
+        <v>7.6596000000000002</v>
+      </c>
+      <c r="J3">
+        <v>58.669699999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4">
+        <v>0.05</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>450</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>10.8551</v>
+      </c>
+      <c r="I4">
+        <v>14.482699999999999</v>
+      </c>
+      <c r="J4">
+        <v>209.74950000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>450</v>
+      </c>
+      <c r="G5">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="H5">
+        <v>22.565899999999999</v>
+      </c>
+      <c r="I5">
+        <v>50.621400000000001</v>
+      </c>
+      <c r="J5">
+        <v>2562.5261</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="H6">
+        <v>29.435400000000001</v>
+      </c>
+      <c r="I6">
+        <v>79.481200000000001</v>
+      </c>
+      <c r="J6">
+        <v>6317.2649000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="H7">
+        <v>33.033700000000003</v>
+      </c>
+      <c r="I7">
+        <v>77.831599999999995</v>
+      </c>
+      <c r="J7">
+        <v>6057.7609000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="H8">
+        <v>35.139699999999998</v>
+      </c>
+      <c r="I8">
+        <v>63.4039</v>
+      </c>
+      <c r="J8">
+        <v>4020.0482999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>450</v>
+      </c>
+      <c r="G9">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="H9">
+        <v>39.873199999999997</v>
+      </c>
+      <c r="I9">
+        <v>84.105099999999993</v>
+      </c>
+      <c r="J9">
+        <v>7073.6736000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="H10">
+        <v>39.743000000000002</v>
+      </c>
+      <c r="I10">
+        <v>104.45959999999999</v>
+      </c>
+      <c r="J10">
+        <v>10911.806</v>
+      </c>
+      <c r="K10">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11">
+        <v>0.03</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="H11">
+        <v>41.734000000000002</v>
+      </c>
+      <c r="I11">
+        <v>72.919300000000007</v>
+      </c>
+      <c r="J11">
+        <v>5317.2241999999997</v>
+      </c>
+      <c r="K11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12">
+        <v>0.05</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>450</v>
+      </c>
+      <c r="G12">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="H12">
+        <v>38.631500000000003</v>
+      </c>
+      <c r="I12">
+        <v>75.007300000000001</v>
+      </c>
+      <c r="J12">
+        <v>5626.1018000000004</v>
+      </c>
+      <c r="K12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>450</v>
+      </c>
+      <c r="G13">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="H13">
+        <v>48.524000000000001</v>
+      </c>
+      <c r="I13">
+        <v>71.049499999999995</v>
+      </c>
+      <c r="J13">
+        <v>5048.0295999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>450</v>
+      </c>
+      <c r="G14">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="H14">
+        <v>46.0152</v>
+      </c>
+      <c r="I14">
+        <v>85.744500000000002</v>
+      </c>
+      <c r="J14">
+        <v>7352.1180999999997</v>
+      </c>
+      <c r="K14">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15">
+        <v>0.03</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>450</v>
+      </c>
+      <c r="G15">
+        <v>0.9385</v>
+      </c>
+      <c r="H15">
+        <v>45.587299999999999</v>
+      </c>
+      <c r="I15">
+        <v>59.900399999999998</v>
+      </c>
+      <c r="J15">
+        <v>3588.0590999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16">
+        <v>0.03</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>450</v>
+      </c>
+      <c r="G16">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="H16">
+        <v>45.627600000000001</v>
+      </c>
+      <c r="I16">
+        <v>71.071799999999996</v>
+      </c>
+      <c r="J16">
+        <v>5051.1949000000004</v>
+      </c>
+      <c r="K16">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17">
+        <v>0.03</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>450</v>
+      </c>
+      <c r="G17">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="H17">
+        <v>45.627600000000001</v>
+      </c>
+      <c r="I17">
+        <v>71.071799999999996</v>
+      </c>
+      <c r="J17">
+        <v>5051.1949000000004</v>
+      </c>
+      <c r="K17">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18">
+        <v>0.03</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>450</v>
+      </c>
+      <c r="G18">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H18">
+        <v>47.3872</v>
+      </c>
+      <c r="I18">
+        <v>72.431200000000004</v>
+      </c>
+      <c r="J18">
+        <v>5246.2745000000004</v>
+      </c>
+      <c r="K18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>150</v>
+      </c>
+      <c r="G19">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="H19">
+        <v>50.862099999999998</v>
+      </c>
+      <c r="I19">
+        <v>70.345399999999998</v>
+      </c>
+      <c r="J19">
+        <v>4948.4742999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20">
+        <v>0.03</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>300</v>
+      </c>
+      <c r="G20">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="H20">
+        <v>54.1755</v>
+      </c>
+      <c r="I20">
+        <v>91.836699999999993</v>
+      </c>
+      <c r="J20">
+        <v>8433.9775000000009</v>
+      </c>
+      <c r="K20">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21">
+        <v>0.03</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>450</v>
+      </c>
+      <c r="G21">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="H21">
+        <v>56.679600000000001</v>
+      </c>
+      <c r="I21">
+        <v>74.670699999999997</v>
+      </c>
+      <c r="J21">
+        <v>5575.7060000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22">
+        <v>0.05</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>300</v>
+      </c>
+      <c r="G22">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="H22">
+        <v>58.002800000000001</v>
+      </c>
+      <c r="I22">
+        <v>85.636799999999994</v>
+      </c>
+      <c r="J22">
+        <v>7333.6553999999996</v>
+      </c>
+      <c r="K22">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23">
+        <v>0.05</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+      <c r="G23">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="H23">
+        <v>61.511899999999997</v>
+      </c>
+      <c r="I23">
+        <v>126.93170000000001</v>
+      </c>
+      <c r="J23">
+        <v>16111.665199999999</v>
+      </c>
+      <c r="K23">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24">
+        <v>0.05</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>150</v>
+      </c>
+      <c r="G24">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="H24">
+        <v>53.498800000000003</v>
+      </c>
+      <c r="I24">
+        <v>90.212299999999999</v>
+      </c>
+      <c r="J24">
+        <v>8138.2534999999998</v>
+      </c>
+      <c r="K24">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D25">
+        <v>0.03</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>450</v>
+      </c>
+      <c r="G25">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="H25">
+        <v>77.625600000000006</v>
+      </c>
+      <c r="I25">
+        <v>129.3321</v>
+      </c>
+      <c r="J25">
+        <v>16726.7886</v>
+      </c>
+      <c r="K25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26">
+        <v>0.01</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>450</v>
+      </c>
+      <c r="G26">
+        <v>0.9425</v>
+      </c>
+      <c r="H26">
+        <v>57.666200000000003</v>
+      </c>
+      <c r="I26">
+        <v>92.528700000000001</v>
+      </c>
+      <c r="J26">
+        <v>8561.5609000000004</v>
+      </c>
+      <c r="K26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27">
+        <v>0.05</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>450</v>
+      </c>
+      <c r="G27">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="H27">
+        <v>68.638300000000001</v>
+      </c>
+      <c r="I27">
+        <v>123.7165</v>
+      </c>
+      <c r="J27">
+        <v>15305.7757</v>
+      </c>
+      <c r="K27">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28">
+        <v>0.01</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>450</v>
+      </c>
+      <c r="G28">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="H28">
+        <v>64.694999999999993</v>
+      </c>
+      <c r="I28">
+        <v>99.167100000000005</v>
+      </c>
+      <c r="J28">
+        <v>9834.1229999999996</v>
+      </c>
+      <c r="K28">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29">
+        <v>0.03</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>450</v>
+      </c>
+      <c r="G29">
+        <v>0.9375</v>
+      </c>
+      <c r="H29">
+        <v>61.846800000000002</v>
+      </c>
+      <c r="I29">
+        <v>86.219099999999997</v>
+      </c>
+      <c r="J29">
+        <v>7433.7401</v>
+      </c>
+      <c r="K29">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30">
+        <v>0.05</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+      <c r="G30">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="H30">
+        <v>66.398099999999999</v>
+      </c>
+      <c r="I30">
+        <v>108.6712</v>
+      </c>
+      <c r="J30">
+        <v>11809.4406</v>
+      </c>
+      <c r="K30">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31">
+        <v>0.03</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="H31">
+        <v>64.056200000000004</v>
+      </c>
+      <c r="I31">
+        <v>97.910200000000003</v>
+      </c>
+      <c r="J31">
+        <v>9586.4030999999995</v>
+      </c>
+      <c r="K31">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32">
+        <v>0.03</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>450</v>
+      </c>
+      <c r="G32">
+        <v>0.93</v>
+      </c>
+      <c r="H32">
+        <v>65.888800000000003</v>
+      </c>
+      <c r="I32">
+        <v>95.3018</v>
+      </c>
+      <c r="J32">
+        <v>9082.4326000000001</v>
+      </c>
+      <c r="K32">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33">
+        <v>0.05</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>150</v>
+      </c>
+      <c r="G33">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="H33">
+        <v>66.220600000000005</v>
+      </c>
+      <c r="I33">
+        <v>89.397900000000007</v>
+      </c>
+      <c r="J33">
+        <v>7991.9805999999999</v>
+      </c>
+      <c r="K33">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34">
+        <v>0.05</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>450</v>
+      </c>
+      <c r="G34">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="H34">
+        <v>65.772300000000001</v>
+      </c>
+      <c r="I34">
+        <v>94.712800000000001</v>
+      </c>
+      <c r="J34">
+        <v>8970.5092999999997</v>
+      </c>
+      <c r="K34">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35">
+        <v>0.03</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>450</v>
+      </c>
+      <c r="G35">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="H35">
+        <v>68.613100000000003</v>
+      </c>
+      <c r="I35">
+        <v>99.291300000000007</v>
+      </c>
+      <c r="J35">
+        <v>9858.7718000000004</v>
+      </c>
+      <c r="K35">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D36">
+        <v>0.05</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>450</v>
+      </c>
+      <c r="G36">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="H36">
+        <v>71.491500000000002</v>
+      </c>
+      <c r="I36">
+        <v>91.783900000000003</v>
+      </c>
+      <c r="J36">
+        <v>8424.2836000000007</v>
+      </c>
+      <c r="K36">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C37" t="s">
+        <v>379</v>
+      </c>
+      <c r="D37">
+        <v>0.05</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>450</v>
+      </c>
+      <c r="G37">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="H37">
+        <v>78.632999999999996</v>
+      </c>
+      <c r="I37">
+        <v>117.6872</v>
+      </c>
+      <c r="J37">
+        <v>13850.2811</v>
+      </c>
+      <c r="K37">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38">
+        <v>0.05</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>450</v>
+      </c>
+      <c r="G38">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="H38">
+        <v>70.722499999999997</v>
+      </c>
+      <c r="I38">
+        <v>99.781400000000005</v>
+      </c>
+      <c r="J38">
+        <v>9956.3212999999996</v>
+      </c>
+      <c r="K38">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39">
+        <v>0.03</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>450</v>
+      </c>
+      <c r="G39">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="H39">
+        <v>70.536000000000001</v>
+      </c>
+      <c r="I39">
+        <v>115.8817</v>
+      </c>
+      <c r="J39">
+        <v>13428.559300000001</v>
+      </c>
+      <c r="K39">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>384</v>
+      </c>
+      <c r="C40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40">
+        <v>0.03</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>300</v>
+      </c>
+      <c r="G40">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="H40">
+        <v>71.533100000000005</v>
+      </c>
+      <c r="I40">
+        <v>157.4248</v>
+      </c>
+      <c r="J40">
+        <v>24782.577099999999</v>
+      </c>
+      <c r="K40">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>384</v>
+      </c>
+      <c r="C41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41">
+        <v>0.03</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>450</v>
+      </c>
+      <c r="G41">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="H41">
+        <v>69.719700000000003</v>
+      </c>
+      <c r="I41">
+        <v>90.333699999999993</v>
+      </c>
+      <c r="J41">
+        <v>8160.1719999999996</v>
+      </c>
+      <c r="K41">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42">
+        <v>0.05</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>450</v>
+      </c>
+      <c r="G42">
+        <v>0.9204</v>
+      </c>
+      <c r="H42">
+        <v>80.322999999999993</v>
+      </c>
+      <c r="I42">
+        <v>146.53890000000001</v>
+      </c>
+      <c r="J42">
+        <v>21473.6394</v>
+      </c>
+      <c r="K42">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" t="s">
+        <v>381</v>
+      </c>
+      <c r="D43">
+        <v>0.03</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>300</v>
+      </c>
+      <c r="G43">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="H43">
+        <v>72.1083</v>
+      </c>
+      <c r="I43">
+        <v>103.6088</v>
+      </c>
+      <c r="J43">
+        <v>10734.7819</v>
+      </c>
+      <c r="K43">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" t="s">
+        <v>382</v>
+      </c>
+      <c r="D44">
+        <v>0.05</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>450</v>
+      </c>
+      <c r="G44">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="H44">
+        <v>77.521900000000002</v>
+      </c>
+      <c r="I44">
+        <v>96.750500000000002</v>
+      </c>
+      <c r="J44">
+        <v>9360.6645000000008</v>
+      </c>
+      <c r="K44">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45">
+        <v>0.05</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>300</v>
+      </c>
+      <c r="G45">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="H45">
+        <v>86.939499999999995</v>
+      </c>
+      <c r="I45">
+        <v>133.76840000000001</v>
+      </c>
+      <c r="J45">
+        <v>17893.988099999999</v>
+      </c>
+      <c r="K45">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46">
+        <v>0.01</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>300</v>
+      </c>
+      <c r="G46">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="H46">
+        <v>83.212400000000002</v>
+      </c>
+      <c r="I46">
+        <v>117.2717</v>
+      </c>
+      <c r="J46">
+        <v>13752.662</v>
+      </c>
+      <c r="K46">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>378</v>
+      </c>
+      <c r="C47" t="s">
+        <v>379</v>
+      </c>
+      <c r="D47">
+        <v>0.05</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>450</v>
+      </c>
+      <c r="G47">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="H47">
+        <v>84.503</v>
+      </c>
+      <c r="I47">
+        <v>147.14580000000001</v>
+      </c>
+      <c r="J47">
+        <v>21651.899300000001</v>
+      </c>
+      <c r="K47">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C48" t="s">
+        <v>381</v>
+      </c>
+      <c r="D48">
+        <v>0.05</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>300</v>
+      </c>
+      <c r="G48">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H48">
+        <v>85.934899999999999</v>
+      </c>
+      <c r="I48">
+        <v>119.7436</v>
+      </c>
+      <c r="J48">
+        <v>14338.533799999999</v>
+      </c>
+      <c r="K48">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49">
+        <v>0.05</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>300</v>
+      </c>
+      <c r="G49">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H49">
+        <v>90.822299999999998</v>
+      </c>
+      <c r="I49">
+        <v>128.8937</v>
+      </c>
+      <c r="J49">
+        <v>16613.593099999998</v>
+      </c>
+      <c r="K49">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>383</v>
+      </c>
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D50">
+        <v>0.03</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>450</v>
+      </c>
+      <c r="G50">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="H50">
+        <v>105.41079999999999</v>
+      </c>
+      <c r="I50">
+        <v>211.626</v>
+      </c>
+      <c r="J50">
+        <v>44785.5527</v>
+      </c>
+      <c r="K50">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51">
+        <v>0.03</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>450</v>
+      </c>
+      <c r="G51">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="H51">
+        <v>103.56829999999999</v>
+      </c>
+      <c r="I51">
+        <v>137.12309999999999</v>
+      </c>
+      <c r="J51">
+        <v>18802.741399999999</v>
+      </c>
+      <c r="K51">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52">
+        <v>0.05</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>300</v>
+      </c>
+      <c r="G52">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H52">
+        <v>90.140100000000004</v>
+      </c>
+      <c r="I52">
+        <v>108.6656</v>
+      </c>
+      <c r="J52">
+        <v>11808.2145</v>
+      </c>
+      <c r="K52">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>383</v>
+      </c>
+      <c r="C53" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53">
+        <v>0.05</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>150</v>
+      </c>
+      <c r="G53">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H53">
+        <v>91.256299999999996</v>
+      </c>
+      <c r="I53">
+        <v>125.2041</v>
+      </c>
+      <c r="J53">
+        <v>15676.059800000001</v>
+      </c>
+      <c r="K53">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>384</v>
+      </c>
+      <c r="C54" t="s">
+        <v>379</v>
+      </c>
+      <c r="D54">
+        <v>0.05</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>150</v>
+      </c>
+      <c r="G54">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H54">
+        <v>92.278300000000002</v>
+      </c>
+      <c r="I54">
+        <v>111.2381</v>
+      </c>
+      <c r="J54">
+        <v>12373.9048</v>
+      </c>
+      <c r="K54">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>384</v>
+      </c>
+      <c r="C55" t="s">
+        <v>379</v>
+      </c>
+      <c r="D55">
+        <v>0.05</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>150</v>
+      </c>
+      <c r="G55">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H55">
+        <v>92.278300000000002</v>
+      </c>
+      <c r="I55">
+        <v>111.2381</v>
+      </c>
+      <c r="J55">
+        <v>12373.9048</v>
+      </c>
+      <c r="K55">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56">
+        <v>0.05</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>300</v>
+      </c>
+      <c r="G56">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H56">
+        <v>96.493600000000001</v>
+      </c>
+      <c r="I56">
+        <v>223.62010000000001</v>
+      </c>
+      <c r="J56">
+        <v>50005.931700000001</v>
+      </c>
+      <c r="K56">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C57" t="s">
+        <v>382</v>
+      </c>
+      <c r="D57">
+        <v>0.05</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>150</v>
+      </c>
+      <c r="G57">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="H57">
+        <v>96.719899999999996</v>
+      </c>
+      <c r="I57">
+        <v>124.5993</v>
+      </c>
+      <c r="J57">
+        <v>15524.98</v>
+      </c>
+      <c r="K57">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58">
+        <v>0.03</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>450</v>
+      </c>
+      <c r="G58">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="H58">
+        <v>95.116100000000003</v>
+      </c>
+      <c r="I58">
+        <v>172.56610000000001</v>
+      </c>
+      <c r="J58">
+        <v>29779.065200000001</v>
+      </c>
+      <c r="K58">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59">
+        <v>0.05</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>300</v>
+      </c>
+      <c r="G59">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="H59">
+        <v>95.751199999999997</v>
+      </c>
+      <c r="I59">
+        <v>135.315</v>
+      </c>
+      <c r="J59">
+        <v>18310.1479</v>
+      </c>
+      <c r="K59">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>378</v>
+      </c>
+      <c r="C60" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60">
+        <v>0.05</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>300</v>
+      </c>
+      <c r="G60">
+        <v>0.9214</v>
+      </c>
+      <c r="H60">
+        <v>94.999600000000001</v>
+      </c>
+      <c r="I60">
+        <v>126.7662</v>
+      </c>
+      <c r="J60">
+        <v>16069.6759</v>
+      </c>
+      <c r="K60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>378</v>
+      </c>
+      <c r="C61" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61">
+        <v>0.05</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>300</v>
+      </c>
+      <c r="G61">
+        <v>0.9214</v>
+      </c>
+      <c r="H61">
+        <v>94.999600000000001</v>
+      </c>
+      <c r="I61">
+        <v>126.7662</v>
+      </c>
+      <c r="J61">
+        <v>16069.6759</v>
+      </c>
+      <c r="K61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62">
+        <v>0.03</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>150</v>
+      </c>
+      <c r="G62">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="H62">
+        <v>103.3344</v>
+      </c>
+      <c r="I62">
+        <v>144.33840000000001</v>
+      </c>
+      <c r="J62">
+        <v>20833.578600000001</v>
+      </c>
+      <c r="K62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>383</v>
+      </c>
+      <c r="C63" t="s">
+        <v>379</v>
+      </c>
+      <c r="D63">
+        <v>0.05</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>450</v>
+      </c>
+      <c r="G63">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="H63">
+        <v>101.4709</v>
+      </c>
+      <c r="I63">
+        <v>134.05009999999999</v>
+      </c>
+      <c r="J63">
+        <v>17969.432700000001</v>
+      </c>
+      <c r="K63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>384</v>
+      </c>
+      <c r="C64" t="s">
+        <v>379</v>
+      </c>
+      <c r="D64">
+        <v>0.03</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>450</v>
+      </c>
+      <c r="G64">
+        <v>0.9244</v>
+      </c>
+      <c r="H64">
+        <v>99.75</v>
+      </c>
+      <c r="I64">
+        <v>155.25479999999999</v>
+      </c>
+      <c r="J64">
+        <v>24104.058099999998</v>
+      </c>
+      <c r="K64">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65">
+        <v>0.05</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>450</v>
+      </c>
+      <c r="G65">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="H65">
+        <v>104.6503</v>
+      </c>
+      <c r="I65">
+        <v>149.4708</v>
+      </c>
+      <c r="J65">
+        <v>22341.529600000002</v>
+      </c>
+      <c r="K65">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C66" t="s">
+        <v>379</v>
+      </c>
+      <c r="D66">
+        <v>0.03</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>450</v>
+      </c>
+      <c r="G66">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="H66">
+        <v>90.522999999999996</v>
+      </c>
+      <c r="I66">
+        <v>143.45650000000001</v>
+      </c>
+      <c r="J66">
+        <v>20579.7788</v>
+      </c>
+      <c r="K66">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" t="s">
+        <v>380</v>
+      </c>
+      <c r="C67" t="s">
+        <v>382</v>
+      </c>
+      <c r="D67">
+        <v>0.01</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>450</v>
+      </c>
+      <c r="G67">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="H67">
+        <v>100.2354</v>
+      </c>
+      <c r="I67">
+        <v>142.9692</v>
+      </c>
+      <c r="J67">
+        <v>20440.203699999998</v>
+      </c>
+      <c r="K67">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" t="s">
+        <v>381</v>
+      </c>
+      <c r="D68">
+        <v>0.05</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>300</v>
+      </c>
+      <c r="G68">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H68">
+        <v>101.005</v>
+      </c>
+      <c r="I68">
+        <v>133.15539999999999</v>
+      </c>
+      <c r="J68">
+        <v>17730.371299999999</v>
+      </c>
+      <c r="K68">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>384</v>
+      </c>
+      <c r="C69" t="s">
+        <v>381</v>
+      </c>
+      <c r="D69">
+        <v>0.05</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>300</v>
+      </c>
+      <c r="G69">
+        <v>0.9365</v>
+      </c>
+      <c r="H69">
+        <v>101.005</v>
+      </c>
+      <c r="I69">
+        <v>133.15539999999999</v>
+      </c>
+      <c r="J69">
+        <v>17730.371299999999</v>
+      </c>
+      <c r="K69">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" t="s">
+        <v>382</v>
+      </c>
+      <c r="D70">
+        <v>0.05</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>450</v>
+      </c>
+      <c r="G70">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="H70">
+        <v>115.1216</v>
+      </c>
+      <c r="I70">
+        <v>168.63900000000001</v>
+      </c>
+      <c r="J70">
+        <v>28439.1211</v>
+      </c>
+      <c r="K70">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>384</v>
+      </c>
+      <c r="C71" t="s">
+        <v>379</v>
+      </c>
+      <c r="D71">
+        <v>0.05</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>300</v>
+      </c>
+      <c r="G71">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="H71">
+        <v>106.6438</v>
+      </c>
+      <c r="I71">
+        <v>137.7415</v>
+      </c>
+      <c r="J71">
+        <v>18972.7183</v>
+      </c>
+      <c r="K71">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>378</v>
+      </c>
+      <c r="C72" t="s">
+        <v>382</v>
+      </c>
+      <c r="D72">
+        <v>0.05</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>450</v>
+      </c>
+      <c r="G72">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="H72">
+        <v>108.371</v>
+      </c>
+      <c r="I72">
+        <v>133.6925</v>
+      </c>
+      <c r="J72">
+        <v>17873.684000000001</v>
+      </c>
+      <c r="K72">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>378</v>
+      </c>
+      <c r="C73" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73">
+        <v>0.03</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>300</v>
+      </c>
+      <c r="G73">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="H73">
+        <v>106.65689999999999</v>
+      </c>
+      <c r="I73">
+        <v>138.6104</v>
+      </c>
+      <c r="J73">
+        <v>19212.830999999998</v>
+      </c>
+      <c r="K73">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" t="s">
+        <v>384</v>
+      </c>
+      <c r="C74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D74">
+        <v>0.05</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>150</v>
+      </c>
+      <c r="G74">
+        <v>-0.113</v>
+      </c>
+      <c r="H74">
+        <v>133.2877</v>
+      </c>
+      <c r="I74">
+        <v>418.38729999999998</v>
+      </c>
+      <c r="J74">
+        <v>175047.94519999999</v>
+      </c>
+      <c r="K74">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>380</v>
+      </c>
+      <c r="C75" t="s">
+        <v>381</v>
+      </c>
+      <c r="D75">
+        <v>0.03</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>450</v>
+      </c>
+      <c r="G75">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="H75">
+        <v>112.57299999999999</v>
+      </c>
+      <c r="I75">
+        <v>150.75219999999999</v>
+      </c>
+      <c r="J75">
+        <v>22726.232400000001</v>
+      </c>
+      <c r="K75">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>384</v>
+      </c>
+      <c r="C76" t="s">
+        <v>382</v>
+      </c>
+      <c r="D76">
+        <v>0.05</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>150</v>
+      </c>
+      <c r="G76">
+        <v>-0.29930000000000001</v>
+      </c>
+      <c r="H76">
+        <v>198.0822</v>
+      </c>
+      <c r="I76">
+        <v>412.72570000000002</v>
+      </c>
+      <c r="J76">
+        <v>170342.46580000001</v>
+      </c>
+      <c r="K76">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>384</v>
+      </c>
+      <c r="C77" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77">
+        <v>0.03</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>450</v>
+      </c>
+      <c r="G77">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="H77">
+        <v>125.27500000000001</v>
+      </c>
+      <c r="I77">
+        <v>149.26070000000001</v>
+      </c>
+      <c r="J77">
+        <v>22278.7647</v>
+      </c>
+      <c r="K77">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78">
+        <v>0.03</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>300</v>
+      </c>
+      <c r="G78">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="H78">
+        <v>132.5309</v>
+      </c>
+      <c r="I78">
+        <v>178.83449999999999</v>
+      </c>
+      <c r="J78">
+        <v>31981.7781</v>
+      </c>
+      <c r="K78">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79">
+        <v>0.05</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>450</v>
+      </c>
+      <c r="G79">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="H79">
+        <v>131.2021</v>
+      </c>
+      <c r="I79">
+        <v>169.58250000000001</v>
+      </c>
+      <c r="J79">
+        <v>28758.219000000001</v>
+      </c>
+      <c r="K79">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" t="s">
+        <v>379</v>
+      </c>
+      <c r="D80">
+        <v>0.05</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>300</v>
+      </c>
+      <c r="G80">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="H80">
+        <v>129.9699</v>
+      </c>
+      <c r="I80">
+        <v>175.06890000000001</v>
+      </c>
+      <c r="J80">
+        <v>30649.136299999998</v>
+      </c>
+      <c r="K80">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81">
+        <v>0.05</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>150</v>
+      </c>
+      <c r="G81">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="H81">
+        <v>133.89580000000001</v>
+      </c>
+      <c r="I81">
+        <v>175.2765</v>
+      </c>
+      <c r="J81">
+        <v>30721.855</v>
+      </c>
+      <c r="K81">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>378</v>
+      </c>
+      <c r="C82" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82">
+        <v>0.05</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>450</v>
+      </c>
+      <c r="G82">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="H82">
+        <v>148.25069999999999</v>
+      </c>
+      <c r="I82">
+        <v>192.023</v>
+      </c>
+      <c r="J82">
+        <v>36872.8321</v>
+      </c>
+      <c r="K82">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>384</v>
+      </c>
+      <c r="C83" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83">
+        <v>0.03</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>150</v>
+      </c>
+      <c r="G83">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H83">
+        <v>151.6516</v>
+      </c>
+      <c r="I83">
+        <v>221.73820000000001</v>
+      </c>
+      <c r="J83">
+        <v>49167.845099999999</v>
+      </c>
+      <c r="K83">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84">
+        <v>0.03</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>150</v>
+      </c>
+      <c r="G84">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="H84">
+        <v>149.84270000000001</v>
+      </c>
+      <c r="I84">
+        <v>242.06870000000001</v>
+      </c>
+      <c r="J84">
+        <v>58597.253599999996</v>
+      </c>
+      <c r="K84">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>378</v>
+      </c>
+      <c r="C85" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85">
+        <v>0.05</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>300</v>
+      </c>
+      <c r="G85">
+        <v>0.82230000000000003</v>
+      </c>
+      <c r="H85">
+        <v>184.13499999999999</v>
+      </c>
+      <c r="I85">
+        <v>245.3775</v>
+      </c>
+      <c r="J85">
+        <v>60210.135900000001</v>
+      </c>
+      <c r="K85">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" t="s">
+        <v>382</v>
+      </c>
+      <c r="D86">
+        <v>0.01</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>450</v>
+      </c>
+      <c r="G86">
+        <v>0.495</v>
+      </c>
+      <c r="H86">
+        <v>170.999</v>
+      </c>
+      <c r="I86">
+        <v>199.4136</v>
+      </c>
+      <c r="J86">
+        <v>39765.775600000001</v>
+      </c>
+      <c r="K86">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87">
+        <v>0.03</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>150</v>
+      </c>
+      <c r="G87">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="H87">
+        <v>208.4862</v>
+      </c>
+      <c r="I87">
+        <v>313.64170000000001</v>
+      </c>
+      <c r="J87">
+        <v>98371.104699999996</v>
+      </c>
+      <c r="K87">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" t="s">
+        <v>384</v>
+      </c>
+      <c r="C88" t="s">
+        <v>379</v>
+      </c>
+      <c r="D88">
+        <v>0.05</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>300</v>
+      </c>
+      <c r="G88">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="H88">
+        <v>174.3663</v>
+      </c>
+      <c r="I88">
+        <v>226.02170000000001</v>
+      </c>
+      <c r="J88">
+        <v>51085.8194</v>
+      </c>
+      <c r="K88">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>378</v>
+      </c>
+      <c r="C89" t="s">
+        <v>381</v>
+      </c>
+      <c r="D89">
+        <v>0.03</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>300</v>
+      </c>
+      <c r="G89">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="H89">
+        <v>176.95179999999999</v>
+      </c>
+      <c r="I89">
+        <v>214.9607</v>
+      </c>
+      <c r="J89">
+        <v>46208.101300000002</v>
+      </c>
+      <c r="K89">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90">
+        <v>0.05</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>150</v>
+      </c>
+      <c r="G90">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H90">
+        <v>197.71190000000001</v>
+      </c>
+      <c r="I90">
+        <v>244.9855</v>
+      </c>
+      <c r="J90">
+        <v>60017.918400000002</v>
+      </c>
+      <c r="K90">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>380</v>
+      </c>
+      <c r="C91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D91">
+        <v>0.05</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>300</v>
+      </c>
+      <c r="G91">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="H91">
+        <v>194.77760000000001</v>
+      </c>
+      <c r="I91">
+        <v>222.33199999999999</v>
+      </c>
+      <c r="J91">
+        <v>49431.509700000002</v>
+      </c>
+      <c r="K91">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92">
+        <v>0.03</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>450</v>
+      </c>
+      <c r="G92">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="H92">
+        <v>262.72449999999998</v>
+      </c>
+      <c r="I92">
+        <v>341.88029999999998</v>
+      </c>
+      <c r="J92">
+        <v>116882.12519999999</v>
+      </c>
+      <c r="K92">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" t="s">
+        <v>379</v>
+      </c>
+      <c r="D93">
+        <v>0.05</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>150</v>
+      </c>
+      <c r="G93">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="H93">
+        <v>292.30169999999998</v>
+      </c>
+      <c r="I93">
+        <v>423.21980000000002</v>
+      </c>
+      <c r="J93">
+        <v>179115.03409999999</v>
+      </c>
+      <c r="K93">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" t="s">
+        <v>379</v>
+      </c>
+      <c r="D94">
+        <v>0.05</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>150</v>
+      </c>
+      <c r="G94">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="H94">
+        <v>292.30169999999998</v>
+      </c>
+      <c r="I94">
+        <v>423.21980000000002</v>
+      </c>
+      <c r="J94">
+        <v>179115.03409999999</v>
+      </c>
+      <c r="K94">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>378</v>
+      </c>
+      <c r="C95" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95">
+        <v>0.05</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>450</v>
+      </c>
+      <c r="G95">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="H95">
+        <v>254.09989999999999</v>
+      </c>
+      <c r="I95">
+        <v>345.87029999999999</v>
+      </c>
+      <c r="J95">
+        <v>119626.2984</v>
+      </c>
+      <c r="K95">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" t="s">
+        <v>384</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96">
+        <v>0.03</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>300</v>
+      </c>
+      <c r="G96">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="H96">
+        <v>294.47789999999998</v>
+      </c>
+      <c r="I96">
+        <v>408.93029999999999</v>
+      </c>
+      <c r="J96">
+        <v>167224.00200000001</v>
+      </c>
+      <c r="K96">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" t="s">
+        <v>382</v>
+      </c>
+      <c r="D97">
+        <v>0.05</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>150</v>
+      </c>
+      <c r="G97">
+        <v>0.8125</v>
+      </c>
+      <c r="H97">
+        <v>326.00909999999999</v>
+      </c>
+      <c r="I97">
+        <v>400.73660000000001</v>
+      </c>
+      <c r="J97">
+        <v>160589.802</v>
+      </c>
+      <c r="K97">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>384</v>
+      </c>
+      <c r="C98" t="s">
+        <v>379</v>
+      </c>
+      <c r="D98">
+        <v>0.05</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>150</v>
+      </c>
+      <c r="G98">
+        <v>-1.8655999999999999</v>
+      </c>
+      <c r="H98">
+        <v>1216.0707</v>
+      </c>
+      <c r="I98">
+        <v>1423.347</v>
+      </c>
+      <c r="J98">
+        <v>2025916.7220000001</v>
+      </c>
+      <c r="K98">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>380</v>
+      </c>
+      <c r="C99" t="s">
+        <v>379</v>
+      </c>
+      <c r="D99">
+        <v>0.01</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>150</v>
+      </c>
+      <c r="G99">
+        <v>-2.1861000000000002</v>
+      </c>
+      <c r="H99">
+        <v>1032.0512000000001</v>
+      </c>
+      <c r="I99">
+        <v>1209.3548000000001</v>
+      </c>
+      <c r="J99">
+        <v>1462538.997</v>
+      </c>
+      <c r="K99">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" t="s">
+        <v>381</v>
+      </c>
+      <c r="D100">
+        <v>0.05</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>300</v>
+      </c>
+      <c r="G100">
+        <v>-0.20039999999999999</v>
+      </c>
+      <c r="H100">
+        <v>1378.9047</v>
+      </c>
+      <c r="I100">
+        <v>2815.0018</v>
+      </c>
+      <c r="J100">
+        <v>7924235.0120000001</v>
+      </c>
+      <c r="K100">
+        <v>7.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K100" xr:uid="{074C836B-15E7-415E-AB71-24CCE257A33D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K100">
+      <sortCondition ref="K2:K100"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E7BD4A-7342-444D-ADE9-2C28A0B1E536}">
+  <dimension ref="A1:K100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>-0.20039999999999999</v>
+      </c>
+      <c r="H2">
+        <v>1378.9047</v>
+      </c>
+      <c r="I2">
+        <v>2815.0018</v>
+      </c>
+      <c r="J2">
+        <v>7924235.0120000001</v>
+      </c>
+      <c r="K2">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>-1.8655999999999999</v>
+      </c>
+      <c r="H3">
+        <v>1216.0707</v>
+      </c>
+      <c r="I3">
+        <v>1423.347</v>
+      </c>
+      <c r="J3">
+        <v>2025916.7220000001</v>
+      </c>
+      <c r="K3">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4">
+        <v>0.01</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>-2.1861000000000002</v>
+      </c>
+      <c r="H4">
+        <v>1032.0512000000001</v>
+      </c>
+      <c r="I4">
+        <v>1209.3548000000001</v>
+      </c>
+      <c r="J4">
+        <v>1462538.997</v>
+      </c>
+      <c r="K4">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="H5">
+        <v>292.30169999999998</v>
+      </c>
+      <c r="I5">
+        <v>423.21980000000002</v>
+      </c>
+      <c r="J5">
+        <v>179115.03409999999</v>
+      </c>
+      <c r="K5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="H6">
+        <v>292.30169999999998</v>
+      </c>
+      <c r="I6">
+        <v>423.21980000000002</v>
+      </c>
+      <c r="J6">
+        <v>179115.03409999999</v>
+      </c>
+      <c r="K6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>-0.113</v>
+      </c>
+      <c r="H7">
+        <v>133.2877</v>
+      </c>
+      <c r="I7">
+        <v>418.38729999999998</v>
+      </c>
+      <c r="J7">
+        <v>175047.94519999999</v>
+      </c>
+      <c r="K7">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <v>-0.29930000000000001</v>
+      </c>
+      <c r="H8">
+        <v>198.0822</v>
+      </c>
+      <c r="I8">
+        <v>412.72570000000002</v>
+      </c>
+      <c r="J8">
+        <v>170342.46580000001</v>
+      </c>
+      <c r="K8">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="H9">
+        <v>294.47789999999998</v>
+      </c>
+      <c r="I9">
+        <v>408.93029999999999</v>
+      </c>
+      <c r="J9">
+        <v>167224.00200000001</v>
+      </c>
+      <c r="K9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+      <c r="G10">
+        <v>0.8125</v>
+      </c>
+      <c r="H10">
+        <v>326.00909999999999</v>
+      </c>
+      <c r="I10">
+        <v>400.73660000000001</v>
+      </c>
+      <c r="J10">
+        <v>160589.802</v>
+      </c>
+      <c r="K10">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11">
+        <v>0.05</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>450</v>
+      </c>
+      <c r="G11">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="H11">
+        <v>254.09989999999999</v>
+      </c>
+      <c r="I11">
+        <v>345.87029999999999</v>
+      </c>
+      <c r="J11">
+        <v>119626.2984</v>
+      </c>
+      <c r="K11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12">
+        <v>0.03</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>450</v>
+      </c>
+      <c r="G12">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="H12">
+        <v>262.72449999999998</v>
+      </c>
+      <c r="I12">
+        <v>341.88029999999998</v>
+      </c>
+      <c r="J12">
+        <v>116882.12519999999</v>
+      </c>
+      <c r="K12">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="H13">
+        <v>208.4862</v>
+      </c>
+      <c r="I13">
+        <v>313.64170000000001</v>
+      </c>
+      <c r="J13">
+        <v>98371.104699999996</v>
+      </c>
+      <c r="K13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14">
+        <v>0.05</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <v>0.82230000000000003</v>
+      </c>
+      <c r="H14">
+        <v>184.13499999999999</v>
+      </c>
+      <c r="I14">
+        <v>245.3775</v>
+      </c>
+      <c r="J14">
+        <v>60210.135900000001</v>
+      </c>
+      <c r="K14">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15">
+        <v>0.05</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>150</v>
+      </c>
+      <c r="G15">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H15">
+        <v>197.71190000000001</v>
+      </c>
+      <c r="I15">
+        <v>244.9855</v>
+      </c>
+      <c r="J15">
+        <v>60017.918400000002</v>
+      </c>
+      <c r="K15">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16">
+        <v>0.03</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="H16">
+        <v>149.84270000000001</v>
+      </c>
+      <c r="I16">
+        <v>242.06870000000001</v>
+      </c>
+      <c r="J16">
+        <v>58597.253599999996</v>
+      </c>
+      <c r="K16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17">
+        <v>0.05</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>300</v>
+      </c>
+      <c r="G17">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="H17">
+        <v>174.3663</v>
+      </c>
+      <c r="I17">
+        <v>226.02170000000001</v>
+      </c>
+      <c r="J17">
+        <v>51085.8194</v>
+      </c>
+      <c r="K17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H18">
+        <v>96.493600000000001</v>
+      </c>
+      <c r="I18">
+        <v>223.62010000000001</v>
+      </c>
+      <c r="J18">
+        <v>50005.931700000001</v>
+      </c>
+      <c r="K18">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>300</v>
+      </c>
+      <c r="G19">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="H19">
+        <v>194.77760000000001</v>
+      </c>
+      <c r="I19">
+        <v>222.33199999999999</v>
+      </c>
+      <c r="J19">
+        <v>49431.509700000002</v>
+      </c>
+      <c r="K19">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20">
+        <v>0.03</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>150</v>
+      </c>
+      <c r="G20">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H20">
+        <v>151.6516</v>
+      </c>
+      <c r="I20">
+        <v>221.73820000000001</v>
+      </c>
+      <c r="J20">
+        <v>49167.845099999999</v>
+      </c>
+      <c r="K20">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21">
+        <v>0.03</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="H21">
+        <v>176.95179999999999</v>
+      </c>
+      <c r="I21">
+        <v>214.9607</v>
+      </c>
+      <c r="J21">
+        <v>46208.101300000002</v>
+      </c>
+      <c r="K21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>450</v>
+      </c>
+      <c r="G22">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="H22">
+        <v>105.41079999999999</v>
+      </c>
+      <c r="I22">
+        <v>211.626</v>
+      </c>
+      <c r="J22">
+        <v>44785.5527</v>
+      </c>
+      <c r="K22">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>450</v>
+      </c>
+      <c r="G23">
+        <v>0.495</v>
+      </c>
+      <c r="H23">
+        <v>170.999</v>
+      </c>
+      <c r="I23">
+        <v>199.4136</v>
+      </c>
+      <c r="J23">
+        <v>39765.775600000001</v>
+      </c>
+      <c r="K23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24">
+        <v>0.05</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>450</v>
+      </c>
+      <c r="G24">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="H24">
+        <v>148.25069999999999</v>
+      </c>
+      <c r="I24">
+        <v>192.023</v>
+      </c>
+      <c r="J24">
+        <v>36872.8321</v>
+      </c>
+      <c r="K24">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25">
+        <v>0.03</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="H25">
+        <v>132.5309</v>
+      </c>
+      <c r="I25">
+        <v>178.83449999999999</v>
+      </c>
+      <c r="J25">
+        <v>31981.7781</v>
+      </c>
+      <c r="K25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26">
+        <v>0.05</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>150</v>
+      </c>
+      <c r="G26">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="H26">
+        <v>133.89580000000001</v>
+      </c>
+      <c r="I26">
+        <v>175.2765</v>
+      </c>
+      <c r="J26">
+        <v>30721.855</v>
+      </c>
+      <c r="K26">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27">
+        <v>0.05</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="H27">
+        <v>129.9699</v>
+      </c>
+      <c r="I27">
+        <v>175.06890000000001</v>
+      </c>
+      <c r="J27">
+        <v>30649.136299999998</v>
+      </c>
+      <c r="K27">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28">
+        <v>0.03</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>450</v>
+      </c>
+      <c r="G28">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="H28">
+        <v>95.116100000000003</v>
+      </c>
+      <c r="I28">
+        <v>172.56610000000001</v>
+      </c>
+      <c r="J28">
+        <v>29779.065200000001</v>
+      </c>
+      <c r="K28">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" t="s">
+        <v>381</v>
+      </c>
+      <c r="D29">
+        <v>0.05</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>450</v>
+      </c>
+      <c r="G29">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="H29">
+        <v>131.2021</v>
+      </c>
+      <c r="I29">
+        <v>169.58250000000001</v>
+      </c>
+      <c r="J29">
+        <v>28758.219000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D30">
+        <v>0.05</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>450</v>
+      </c>
+      <c r="G30">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="H30">
+        <v>115.1216</v>
+      </c>
+      <c r="I30">
+        <v>168.63900000000001</v>
+      </c>
+      <c r="J30">
+        <v>28439.1211</v>
+      </c>
+      <c r="K30">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31">
+        <v>0.03</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="H31">
+        <v>71.533100000000005</v>
+      </c>
+      <c r="I31">
+        <v>157.4248</v>
+      </c>
+      <c r="J31">
+        <v>24782.577099999999</v>
+      </c>
+      <c r="K31">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32">
+        <v>0.03</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>450</v>
+      </c>
+      <c r="G32">
+        <v>0.9244</v>
+      </c>
+      <c r="H32">
+        <v>99.75</v>
+      </c>
+      <c r="I32">
+        <v>155.25479999999999</v>
+      </c>
+      <c r="J32">
+        <v>24104.058099999998</v>
+      </c>
+      <c r="K32">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" t="s">
+        <v>381</v>
+      </c>
+      <c r="D33">
+        <v>0.03</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>450</v>
+      </c>
+      <c r="G33">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="H33">
+        <v>112.57299999999999</v>
+      </c>
+      <c r="I33">
+        <v>150.75219999999999</v>
+      </c>
+      <c r="J33">
+        <v>22726.232400000001</v>
+      </c>
+      <c r="K33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" t="s">
+        <v>381</v>
+      </c>
+      <c r="D34">
+        <v>0.05</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>450</v>
+      </c>
+      <c r="G34">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="H34">
+        <v>104.6503</v>
+      </c>
+      <c r="I34">
+        <v>149.4708</v>
+      </c>
+      <c r="J34">
+        <v>22341.529600000002</v>
+      </c>
+      <c r="K34">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35">
+        <v>0.03</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>450</v>
+      </c>
+      <c r="G35">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="H35">
+        <v>125.27500000000001</v>
+      </c>
+      <c r="I35">
+        <v>149.26070000000001</v>
+      </c>
+      <c r="J35">
+        <v>22278.7647</v>
+      </c>
+      <c r="K35">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D36">
+        <v>0.05</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>450</v>
+      </c>
+      <c r="G36">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="H36">
+        <v>84.503</v>
+      </c>
+      <c r="I36">
+        <v>147.14580000000001</v>
+      </c>
+      <c r="J36">
+        <v>21651.899300000001</v>
+      </c>
+      <c r="K36">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C37" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37">
+        <v>0.05</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>450</v>
+      </c>
+      <c r="G37">
+        <v>0.9204</v>
+      </c>
+      <c r="H37">
+        <v>80.322999999999993</v>
+      </c>
+      <c r="I37">
+        <v>146.53890000000001</v>
+      </c>
+      <c r="J37">
+        <v>21473.6394</v>
+      </c>
+      <c r="K37">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>384</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38">
+        <v>0.03</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>150</v>
+      </c>
+      <c r="G38">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="H38">
+        <v>103.3344</v>
+      </c>
+      <c r="I38">
+        <v>144.33840000000001</v>
+      </c>
+      <c r="J38">
+        <v>20833.578600000001</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" t="s">
+        <v>379</v>
+      </c>
+      <c r="D39">
+        <v>0.03</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>450</v>
+      </c>
+      <c r="G39">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="H39">
+        <v>90.522999999999996</v>
+      </c>
+      <c r="I39">
+        <v>143.45650000000001</v>
+      </c>
+      <c r="J39">
+        <v>20579.7788</v>
+      </c>
+      <c r="K39">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>380</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
+      <c r="D40">
+        <v>0.01</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>450</v>
+      </c>
+      <c r="G40">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="H40">
+        <v>100.2354</v>
+      </c>
+      <c r="I40">
+        <v>142.9692</v>
+      </c>
+      <c r="J40">
+        <v>20440.203699999998</v>
+      </c>
+      <c r="K40">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41">
+        <v>0.03</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>300</v>
+      </c>
+      <c r="G41">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="H41">
+        <v>106.65689999999999</v>
+      </c>
+      <c r="I41">
+        <v>138.6104</v>
+      </c>
+      <c r="J41">
+        <v>19212.830999999998</v>
+      </c>
+      <c r="K41">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C42" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42">
+        <v>0.05</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>300</v>
+      </c>
+      <c r="G42">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="H42">
+        <v>106.6438</v>
+      </c>
+      <c r="I42">
+        <v>137.7415</v>
+      </c>
+      <c r="J42">
+        <v>18972.7183</v>
+      </c>
+      <c r="K42">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43">
+        <v>0.03</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>450</v>
+      </c>
+      <c r="G43">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="H43">
+        <v>103.56829999999999</v>
+      </c>
+      <c r="I43">
+        <v>137.12309999999999</v>
+      </c>
+      <c r="J43">
+        <v>18802.741399999999</v>
+      </c>
+      <c r="K43">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C44" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44">
+        <v>0.05</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>300</v>
+      </c>
+      <c r="G44">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="H44">
+        <v>95.751199999999997</v>
+      </c>
+      <c r="I44">
+        <v>135.315</v>
+      </c>
+      <c r="J44">
+        <v>18310.1479</v>
+      </c>
+      <c r="K44">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45">
+        <v>0.05</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>450</v>
+      </c>
+      <c r="G45">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="H45">
+        <v>101.4709</v>
+      </c>
+      <c r="I45">
+        <v>134.05009999999999</v>
+      </c>
+      <c r="J45">
+        <v>17969.432700000001</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" t="s">
+        <v>379</v>
+      </c>
+      <c r="D46">
+        <v>0.05</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>300</v>
+      </c>
+      <c r="G46">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="H46">
+        <v>86.939499999999995</v>
+      </c>
+      <c r="I46">
+        <v>133.76840000000001</v>
+      </c>
+      <c r="J46">
+        <v>17893.988099999999</v>
+      </c>
+      <c r="K46">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>378</v>
+      </c>
+      <c r="C47" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47">
+        <v>0.05</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>450</v>
+      </c>
+      <c r="G47">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="H47">
+        <v>108.371</v>
+      </c>
+      <c r="I47">
+        <v>133.6925</v>
+      </c>
+      <c r="J47">
+        <v>17873.684000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C48" t="s">
+        <v>381</v>
+      </c>
+      <c r="D48">
+        <v>0.05</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>300</v>
+      </c>
+      <c r="G48">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H48">
+        <v>101.005</v>
+      </c>
+      <c r="I48">
+        <v>133.15539999999999</v>
+      </c>
+      <c r="J48">
+        <v>17730.371299999999</v>
+      </c>
+      <c r="K48">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>384</v>
+      </c>
+      <c r="C49" t="s">
+        <v>381</v>
+      </c>
+      <c r="D49">
+        <v>0.05</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>300</v>
+      </c>
+      <c r="G49">
+        <v>0.9365</v>
+      </c>
+      <c r="H49">
+        <v>101.005</v>
+      </c>
+      <c r="I49">
+        <v>133.15539999999999</v>
+      </c>
+      <c r="J49">
+        <v>17730.371299999999</v>
+      </c>
+      <c r="K49">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D50">
+        <v>0.03</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>450</v>
+      </c>
+      <c r="G50">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="H50">
+        <v>77.625600000000006</v>
+      </c>
+      <c r="I50">
+        <v>129.3321</v>
+      </c>
+      <c r="J50">
+        <v>16726.7886</v>
+      </c>
+      <c r="K50">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>378</v>
+      </c>
+      <c r="C51" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51">
+        <v>0.05</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>300</v>
+      </c>
+      <c r="G51">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H51">
+        <v>90.822299999999998</v>
+      </c>
+      <c r="I51">
+        <v>128.8937</v>
+      </c>
+      <c r="J51">
+        <v>16613.593099999998</v>
+      </c>
+      <c r="K51">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52">
+        <v>0.05</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>300</v>
+      </c>
+      <c r="G52">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="H52">
+        <v>61.511899999999997</v>
+      </c>
+      <c r="I52">
+        <v>126.93170000000001</v>
+      </c>
+      <c r="J52">
+        <v>16111.665199999999</v>
+      </c>
+      <c r="K52">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>378</v>
+      </c>
+      <c r="C53" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53">
+        <v>0.05</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>300</v>
+      </c>
+      <c r="G53">
+        <v>0.9214</v>
+      </c>
+      <c r="H53">
+        <v>94.999600000000001</v>
+      </c>
+      <c r="I53">
+        <v>126.7662</v>
+      </c>
+      <c r="J53">
+        <v>16069.6759</v>
+      </c>
+      <c r="K53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54">
+        <v>0.05</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>300</v>
+      </c>
+      <c r="G54">
+        <v>0.9214</v>
+      </c>
+      <c r="H54">
+        <v>94.999600000000001</v>
+      </c>
+      <c r="I54">
+        <v>126.7662</v>
+      </c>
+      <c r="J54">
+        <v>16069.6759</v>
+      </c>
+      <c r="K54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55">
+        <v>0.05</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>150</v>
+      </c>
+      <c r="G55">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H55">
+        <v>91.256299999999996</v>
+      </c>
+      <c r="I55">
+        <v>125.2041</v>
+      </c>
+      <c r="J55">
+        <v>15676.059800000001</v>
+      </c>
+      <c r="K55">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>384</v>
+      </c>
+      <c r="C56" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56">
+        <v>0.05</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>150</v>
+      </c>
+      <c r="G56">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="H56">
+        <v>96.719899999999996</v>
+      </c>
+      <c r="I56">
+        <v>124.5993</v>
+      </c>
+      <c r="J56">
+        <v>15524.98</v>
+      </c>
+      <c r="K56">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57">
+        <v>0.05</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>450</v>
+      </c>
+      <c r="G57">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="H57">
+        <v>68.638300000000001</v>
+      </c>
+      <c r="I57">
+        <v>123.7165</v>
+      </c>
+      <c r="J57">
+        <v>15305.7757</v>
+      </c>
+      <c r="K57">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
+      <c r="D58">
+        <v>0.05</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>300</v>
+      </c>
+      <c r="G58">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H58">
+        <v>85.934899999999999</v>
+      </c>
+      <c r="I58">
+        <v>119.7436</v>
+      </c>
+      <c r="J58">
+        <v>14338.533799999999</v>
+      </c>
+      <c r="K58">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59">
+        <v>0.05</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>450</v>
+      </c>
+      <c r="G59">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="H59">
+        <v>78.632999999999996</v>
+      </c>
+      <c r="I59">
+        <v>117.6872</v>
+      </c>
+      <c r="J59">
+        <v>13850.2811</v>
+      </c>
+      <c r="K59">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" t="s">
+        <v>381</v>
+      </c>
+      <c r="D60">
+        <v>0.01</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>300</v>
+      </c>
+      <c r="G60">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="H60">
+        <v>83.212400000000002</v>
+      </c>
+      <c r="I60">
+        <v>117.2717</v>
+      </c>
+      <c r="J60">
+        <v>13752.662</v>
+      </c>
+      <c r="K60">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>378</v>
+      </c>
+      <c r="C61" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61">
+        <v>0.03</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>450</v>
+      </c>
+      <c r="G61">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="H61">
+        <v>70.536000000000001</v>
+      </c>
+      <c r="I61">
+        <v>115.8817</v>
+      </c>
+      <c r="J61">
+        <v>13428.559300000001</v>
+      </c>
+      <c r="K61">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62">
+        <v>0.05</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>150</v>
+      </c>
+      <c r="G62">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H62">
+        <v>92.278300000000002</v>
+      </c>
+      <c r="I62">
+        <v>111.2381</v>
+      </c>
+      <c r="J62">
+        <v>12373.9048</v>
+      </c>
+      <c r="K62">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" t="s">
+        <v>379</v>
+      </c>
+      <c r="D63">
+        <v>0.05</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>150</v>
+      </c>
+      <c r="G63">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H63">
+        <v>92.278300000000002</v>
+      </c>
+      <c r="I63">
+        <v>111.2381</v>
+      </c>
+      <c r="J63">
+        <v>12373.9048</v>
+      </c>
+      <c r="K63">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>384</v>
+      </c>
+      <c r="C64" t="s">
+        <v>379</v>
+      </c>
+      <c r="D64">
+        <v>0.05</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>300</v>
+      </c>
+      <c r="G64">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="H64">
+        <v>66.398099999999999</v>
+      </c>
+      <c r="I64">
+        <v>108.6712</v>
+      </c>
+      <c r="J64">
+        <v>11809.4406</v>
+      </c>
+      <c r="K64">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>378</v>
+      </c>
+      <c r="C65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D65">
+        <v>0.05</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>300</v>
+      </c>
+      <c r="G65">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H65">
+        <v>90.140100000000004</v>
+      </c>
+      <c r="I65">
+        <v>108.6656</v>
+      </c>
+      <c r="J65">
+        <v>11808.2145</v>
+      </c>
+      <c r="K65">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>378</v>
+      </c>
+      <c r="C66" t="s">
+        <v>379</v>
+      </c>
+      <c r="D66">
+        <v>0.03</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>300</v>
+      </c>
+      <c r="G66">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="H66">
+        <v>39.743000000000002</v>
+      </c>
+      <c r="I66">
+        <v>104.45959999999999</v>
+      </c>
+      <c r="J66">
+        <v>10911.806</v>
+      </c>
+      <c r="K66">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" t="s">
+        <v>381</v>
+      </c>
+      <c r="D67">
+        <v>0.03</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>300</v>
+      </c>
+      <c r="G67">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="H67">
+        <v>72.1083</v>
+      </c>
+      <c r="I67">
+        <v>103.6088</v>
+      </c>
+      <c r="J67">
+        <v>10734.7819</v>
+      </c>
+      <c r="K67">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" t="s">
+        <v>379</v>
+      </c>
+      <c r="D68">
+        <v>0.05</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>450</v>
+      </c>
+      <c r="G68">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="H68">
+        <v>70.722499999999997</v>
+      </c>
+      <c r="I68">
+        <v>99.781400000000005</v>
+      </c>
+      <c r="J68">
+        <v>9956.3212999999996</v>
+      </c>
+      <c r="K68">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>384</v>
+      </c>
+      <c r="C69" t="s">
+        <v>381</v>
+      </c>
+      <c r="D69">
+        <v>0.03</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>450</v>
+      </c>
+      <c r="G69">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="H69">
+        <v>68.613100000000003</v>
+      </c>
+      <c r="I69">
+        <v>99.291300000000007</v>
+      </c>
+      <c r="J69">
+        <v>9858.7718000000004</v>
+      </c>
+      <c r="K69">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70">
+        <v>0.01</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>450</v>
+      </c>
+      <c r="G70">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="H70">
+        <v>64.694999999999993</v>
+      </c>
+      <c r="I70">
+        <v>99.167100000000005</v>
+      </c>
+      <c r="J70">
+        <v>9834.1229999999996</v>
+      </c>
+      <c r="K70">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>383</v>
+      </c>
+      <c r="C71" t="s">
+        <v>381</v>
+      </c>
+      <c r="D71">
+        <v>0.03</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>300</v>
+      </c>
+      <c r="G71">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="H71">
+        <v>64.056200000000004</v>
+      </c>
+      <c r="I71">
+        <v>97.910200000000003</v>
+      </c>
+      <c r="J71">
+        <v>9586.4030999999995</v>
+      </c>
+      <c r="K71">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>380</v>
+      </c>
+      <c r="C72" t="s">
+        <v>382</v>
+      </c>
+      <c r="D72">
+        <v>0.05</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>450</v>
+      </c>
+      <c r="G72">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="H72">
+        <v>77.521900000000002</v>
+      </c>
+      <c r="I72">
+        <v>96.750500000000002</v>
+      </c>
+      <c r="J72">
+        <v>9360.6645000000008</v>
+      </c>
+      <c r="K72">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>380</v>
+      </c>
+      <c r="C73" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73">
+        <v>0.03</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>450</v>
+      </c>
+      <c r="G73">
+        <v>0.93</v>
+      </c>
+      <c r="H73">
+        <v>65.888800000000003</v>
+      </c>
+      <c r="I73">
+        <v>95.3018</v>
+      </c>
+      <c r="J73">
+        <v>9082.4326000000001</v>
+      </c>
+      <c r="K73">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>380</v>
+      </c>
+      <c r="C74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D74">
+        <v>0.05</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>450</v>
+      </c>
+      <c r="G74">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="H74">
+        <v>65.772300000000001</v>
+      </c>
+      <c r="I74">
+        <v>94.712800000000001</v>
+      </c>
+      <c r="J74">
+        <v>8970.5092999999997</v>
+      </c>
+      <c r="K74">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>384</v>
+      </c>
+      <c r="C75" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75">
+        <v>0.01</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>450</v>
+      </c>
+      <c r="G75">
+        <v>0.9425</v>
+      </c>
+      <c r="H75">
+        <v>57.666200000000003</v>
+      </c>
+      <c r="I75">
+        <v>92.528700000000001</v>
+      </c>
+      <c r="J75">
+        <v>8561.5609000000004</v>
+      </c>
+      <c r="K75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>380</v>
+      </c>
+      <c r="C76" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76">
+        <v>0.03</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>300</v>
+      </c>
+      <c r="G76">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="H76">
+        <v>54.1755</v>
+      </c>
+      <c r="I76">
+        <v>91.836699999999993</v>
+      </c>
+      <c r="J76">
+        <v>8433.9775000000009</v>
+      </c>
+      <c r="K76">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>378</v>
+      </c>
+      <c r="C77" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77">
+        <v>0.05</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>450</v>
+      </c>
+      <c r="G77">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="H77">
+        <v>71.491500000000002</v>
+      </c>
+      <c r="I77">
+        <v>91.783900000000003</v>
+      </c>
+      <c r="J77">
+        <v>8424.2836000000007</v>
+      </c>
+      <c r="K77">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>384</v>
+      </c>
+      <c r="C78" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78">
+        <v>0.03</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>450</v>
+      </c>
+      <c r="G78">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="H78">
+        <v>69.719700000000003</v>
+      </c>
+      <c r="I78">
+        <v>90.333699999999993</v>
+      </c>
+      <c r="J78">
+        <v>8160.1719999999996</v>
+      </c>
+      <c r="K78">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>384</v>
+      </c>
+      <c r="C79" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79">
+        <v>0.05</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>150</v>
+      </c>
+      <c r="G79">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="H79">
+        <v>53.498800000000003</v>
+      </c>
+      <c r="I79">
+        <v>90.212299999999999</v>
+      </c>
+      <c r="J79">
+        <v>8138.2534999999998</v>
+      </c>
+      <c r="K79">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>384</v>
+      </c>
+      <c r="C80" t="s">
+        <v>379</v>
+      </c>
+      <c r="D80">
+        <v>0.05</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>150</v>
+      </c>
+      <c r="G80">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="H80">
+        <v>66.220600000000005</v>
+      </c>
+      <c r="I80">
+        <v>89.397900000000007</v>
+      </c>
+      <c r="J80">
+        <v>7991.9805999999999</v>
+      </c>
+      <c r="K80">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81">
+        <v>0.03</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>450</v>
+      </c>
+      <c r="G81">
+        <v>0.9375</v>
+      </c>
+      <c r="H81">
+        <v>61.846800000000002</v>
+      </c>
+      <c r="I81">
+        <v>86.219099999999997</v>
+      </c>
+      <c r="J81">
+        <v>7433.7401</v>
+      </c>
+      <c r="K81">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82">
+        <v>0.03</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>450</v>
+      </c>
+      <c r="G82">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="H82">
+        <v>46.0152</v>
+      </c>
+      <c r="I82">
+        <v>85.744500000000002</v>
+      </c>
+      <c r="J82">
+        <v>7352.1180999999997</v>
+      </c>
+      <c r="K82">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>378</v>
+      </c>
+      <c r="C83" t="s">
+        <v>381</v>
+      </c>
+      <c r="D83">
+        <v>0.05</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>300</v>
+      </c>
+      <c r="G83">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="H83">
+        <v>58.002800000000001</v>
+      </c>
+      <c r="I83">
+        <v>85.636799999999994</v>
+      </c>
+      <c r="J83">
+        <v>7333.6553999999996</v>
+      </c>
+      <c r="K83">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84">
+        <v>0.03</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>450</v>
+      </c>
+      <c r="G84">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="H84">
+        <v>39.873199999999997</v>
+      </c>
+      <c r="I84">
+        <v>84.105099999999993</v>
+      </c>
+      <c r="J84">
+        <v>7073.6736000000001</v>
+      </c>
+      <c r="K84">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" t="s">
+        <v>381</v>
+      </c>
+      <c r="D85">
+        <v>0.05</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>150</v>
+      </c>
+      <c r="G85">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="H85">
+        <v>29.435400000000001</v>
+      </c>
+      <c r="I85">
+        <v>79.481200000000001</v>
+      </c>
+      <c r="J85">
+        <v>6317.2649000000001</v>
+      </c>
+      <c r="K85">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>383</v>
+      </c>
+      <c r="C86" t="s">
+        <v>381</v>
+      </c>
+      <c r="D86">
+        <v>0.03</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>300</v>
+      </c>
+      <c r="G86">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="H86">
+        <v>33.033700000000003</v>
+      </c>
+      <c r="I86">
+        <v>77.831599999999995</v>
+      </c>
+      <c r="J86">
+        <v>6057.7609000000002</v>
+      </c>
+      <c r="K86">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87">
+        <v>0.05</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>450</v>
+      </c>
+      <c r="G87">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="H87">
+        <v>38.631500000000003</v>
+      </c>
+      <c r="I87">
+        <v>75.007300000000001</v>
+      </c>
+      <c r="J87">
+        <v>5626.1018000000004</v>
+      </c>
+      <c r="K87">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>380</v>
+      </c>
+      <c r="C88" t="s">
+        <v>382</v>
+      </c>
+      <c r="D88">
+        <v>0.03</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>450</v>
+      </c>
+      <c r="G88">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="H88">
+        <v>56.679600000000001</v>
+      </c>
+      <c r="I88">
+        <v>74.670699999999997</v>
+      </c>
+      <c r="J88">
+        <v>5575.7060000000001</v>
+      </c>
+      <c r="K88">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89">
+        <v>0.03</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>300</v>
+      </c>
+      <c r="G89">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="H89">
+        <v>41.734000000000002</v>
+      </c>
+      <c r="I89">
+        <v>72.919300000000007</v>
+      </c>
+      <c r="J89">
+        <v>5317.2241999999997</v>
+      </c>
+      <c r="K89">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" t="s">
+        <v>379</v>
+      </c>
+      <c r="D90">
+        <v>0.03</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>450</v>
+      </c>
+      <c r="G90">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H90">
+        <v>47.3872</v>
+      </c>
+      <c r="I90">
+        <v>72.431200000000004</v>
+      </c>
+      <c r="J90">
+        <v>5246.2745000000004</v>
+      </c>
+      <c r="K90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" t="s">
+        <v>384</v>
+      </c>
+      <c r="C91" t="s">
+        <v>379</v>
+      </c>
+      <c r="D91">
+        <v>0.03</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>450</v>
+      </c>
+      <c r="G91">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="H91">
+        <v>45.627600000000001</v>
+      </c>
+      <c r="I91">
+        <v>71.071799999999996</v>
+      </c>
+      <c r="J91">
+        <v>5051.1949000000004</v>
+      </c>
+      <c r="K91">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" t="s">
+        <v>379</v>
+      </c>
+      <c r="D92">
+        <v>0.03</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>450</v>
+      </c>
+      <c r="G92">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="H92">
+        <v>45.627600000000001</v>
+      </c>
+      <c r="I92">
+        <v>71.071799999999996</v>
+      </c>
+      <c r="J92">
+        <v>5051.1949000000004</v>
+      </c>
+      <c r="K92">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>384</v>
+      </c>
+      <c r="C93" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93">
+        <v>0.03</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>450</v>
+      </c>
+      <c r="G93">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="H93">
+        <v>48.524000000000001</v>
+      </c>
+      <c r="I93">
+        <v>71.049499999999995</v>
+      </c>
+      <c r="J93">
+        <v>5048.0295999999998</v>
+      </c>
+      <c r="K93">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" t="s">
+        <v>380</v>
+      </c>
+      <c r="C94" t="s">
+        <v>379</v>
+      </c>
+      <c r="D94">
+        <v>0.05</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>150</v>
+      </c>
+      <c r="G94">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="H94">
+        <v>50.862099999999998</v>
+      </c>
+      <c r="I94">
+        <v>70.345399999999998</v>
+      </c>
+      <c r="J94">
+        <v>4948.4742999999999</v>
+      </c>
+      <c r="K94">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" t="s">
+        <v>383</v>
+      </c>
+      <c r="C95" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95">
+        <v>0.05</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>150</v>
+      </c>
+      <c r="G95">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="H95">
+        <v>35.139699999999998</v>
+      </c>
+      <c r="I95">
+        <v>63.4039</v>
+      </c>
+      <c r="J95">
+        <v>4020.0482999999999</v>
+      </c>
+      <c r="K95">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96">
+        <v>0.03</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>450</v>
+      </c>
+      <c r="G96">
+        <v>0.9385</v>
+      </c>
+      <c r="H96">
+        <v>45.587299999999999</v>
+      </c>
+      <c r="I96">
+        <v>59.900399999999998</v>
+      </c>
+      <c r="J96">
+        <v>3588.0590999999999</v>
+      </c>
+      <c r="K96">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>383</v>
+      </c>
+      <c r="C97" t="s">
+        <v>381</v>
+      </c>
+      <c r="D97">
+        <v>0.05</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>450</v>
+      </c>
+      <c r="G97">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="H97">
+        <v>22.565899999999999</v>
+      </c>
+      <c r="I97">
+        <v>50.621400000000001</v>
+      </c>
+      <c r="J97">
+        <v>2562.5261</v>
+      </c>
+      <c r="K97">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>384</v>
+      </c>
+      <c r="C98" t="s">
+        <v>382</v>
+      </c>
+      <c r="D98">
+        <v>0.05</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>450</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>10.8551</v>
+      </c>
+      <c r="I98">
+        <v>14.482699999999999</v>
+      </c>
+      <c r="J98">
+        <v>209.74950000000001</v>
+      </c>
+      <c r="K98">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>384</v>
+      </c>
+      <c r="C99" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99">
+        <v>0.05</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>150</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>7.3556999999999997</v>
+      </c>
+      <c r="I99">
+        <v>7.6596000000000002</v>
+      </c>
+      <c r="J99">
+        <v>58.669699999999999</v>
+      </c>
+      <c r="K99">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>384</v>
+      </c>
+      <c r="C100" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100">
+        <v>0.05</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>150</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>7.3556999999999997</v>
+      </c>
+      <c r="I100">
+        <v>7.6596000000000002</v>
+      </c>
+      <c r="J100">
+        <v>58.669699999999999</v>
+      </c>
+      <c r="K100">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K100">
+    <sortCondition descending="1" ref="I2:I100"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4D8A5F-AD19-44F4-991D-D56E349E730B}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A89" zoomScale="81" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10741,12 +17788,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D10EDBA-E80A-4349-B1AB-5D02E519D1C8}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:K100"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B112" sqref="B111:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14252,7 +21299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L104"/>
   <sheetViews>
@@ -18202,7 +25249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
